--- a/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>87.24</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>56.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>56.03</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.39</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519097</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华中小市值优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,4 +765,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6479</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9</v>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -953,14 +996,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -969,14 +1034,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.04</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -985,13 +1156,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1077,7 +1078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1088,17 +1089,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1108,14 +1129,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1124,14 +1167,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9</v>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>53.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2258</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1140,14 +1205,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9618</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1156,14 +1243,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.04</v>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9402</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1172,13 +1281,1535 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9070</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9031</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7209</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6147</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5755</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4865</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2556</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2273</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006132</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>68.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006133</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519629</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519630</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银河睿利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.18</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D2" t="n">
-        <v>15.79</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.04</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -583,6 +600,1994 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1654</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2450</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8863</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8175</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6447</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010694</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5994</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5289</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3768</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3602</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3046</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010611</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2977</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2527</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010612</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家战略发展产业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>70.32</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2196,7 +4201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2366,7 +4371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2498,7 +4503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2592,7 +4597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2724,7 +4729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
+++ b/数据整理/stocks/A股/上证主板/600559-老白干酒.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>17.47</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>15.79</v>
+        <v>17.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>0.35</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -600,6 +617,3928 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009548</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安研究智选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4248</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3021</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0970</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7493</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中盘价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7382</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011278</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7149</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6721</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6454</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6119</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008273</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发优质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014207</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>26.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011663</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012690</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发消费领先混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519150</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华优选消费混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3386</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013686</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安安信消费混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2962</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013661</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安研究领航混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2777</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2697</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005630</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012073</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>560010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>67.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2151</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159845</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>62.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159629</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>59.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159633</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>58.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013836</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时时代消费混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011664</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014878</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011693</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安研究智选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004995</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014175</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013662</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华安研究领航混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012691</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发消费领先混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014879</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安价值驱动一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011279</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>673010</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>西部利得新动向混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>72.05</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016183</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010801</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>560110</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010245</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.05</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>015148</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>013638</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014176</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.24</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>015149</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华安中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>013506</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华安研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012074</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516300</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010802</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长江量化消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>41.08</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013837</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时时代消费混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>016289</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>013152</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>016033</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011879</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>016564</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>016796</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2587,7 +6526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4201,7 +8140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4371,7 +8310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4503,7 +8442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4597,7 +8536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4729,7 +8668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
